--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee nauht\Desktop\Bai-tap\JS_Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhh\Desktop\JS_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>19</v>

--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="34">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Remove sản phẩm ra khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Deploy vercel, youtube</t>
   </si>
 </sst>
 </file>
@@ -971,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1090,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>19</v>
@@ -1615,6 +1618,36 @@
         <v>11</v>
       </c>
       <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.2" thickBot="1">
+      <c r="A22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
